--- a/data/bioassay_1_nutrients.xlsx
+++ b/data/bioassay_1_nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66586103-44C4-46F9-B5FC-6F42CF192588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6188559-21EA-4E0E-8B5F-55F40281B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9B00FCA-14FA-471B-870F-1FDE5BC27120}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C9B00FCA-14FA-471B-870F-1FDE5BC27120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,10 @@
     <t>sample_number</t>
   </si>
   <si>
-    <t>NO2_3</t>
-  </si>
-  <si>
-    <t>DIN_DIP</t>
+    <t>NO2+3</t>
+  </si>
+  <si>
+    <t>DIN:DIP</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,22 +682,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="H2" s="3">
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="I2" s="3">
-        <v>2.3487204301075266</v>
+        <v>3.3895312871758261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -711,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.17170180395566181</v>
+        <v>0.5638829407566025</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="G3" s="3">
-        <v>0.1274193548387097</v>
+        <v>0.5638829407566025</v>
       </c>
       <c r="H3" s="3">
-        <v>0.1274193548387097</v>
+        <v>0.5638829407566025</v>
       </c>
       <c r="I3" s="3">
-        <v>2.0168360215053767</v>
+        <v>2.9105757792053297</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -737,25 +737,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>0.29027576197387517</v>
+        <v>1.2847965738758029</v>
       </c>
       <c r="D4" s="3">
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="G4" s="3">
-        <v>0.43225806451612897</v>
+        <v>1.9129193433261955</v>
       </c>
       <c r="H4" s="3">
-        <v>0.43225806451612897</v>
+        <v>1.9129193433261955</v>
       </c>
       <c r="I4" s="3">
-        <v>6.8419247311827949</v>
+        <v>9.8738520104687115</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -766,25 +766,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="D5" s="3">
-        <v>0.16952836339926103</v>
+        <v>0.55674518201284795</v>
       </c>
       <c r="E5" s="3">
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="F5" s="3">
-        <v>6.3177845635463831E-2</v>
+        <v>0.19373587342589604</v>
       </c>
       <c r="G5" s="3">
-        <v>0.4</v>
+        <v>1.7701641684511065</v>
       </c>
       <c r="H5" s="3">
-        <v>0.98719906048150319</v>
+        <v>2.4839400428265526</v>
       </c>
       <c r="I5" s="3">
-        <v>15.625715795654726</v>
+        <v>12.821270521056388</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8.0632156103854213E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="D6">
-        <v>0.18908932840686807</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.1059281878487945E-2</v>
+        <v>6.4578624475298677E-2</v>
       </c>
       <c r="G6">
-        <v>0.22096774193548388</v>
+        <v>0.97787294789436108</v>
       </c>
       <c r="H6">
-        <v>0.22096774193548388</v>
+        <v>0.97787294789436108</v>
       </c>
       <c r="I6">
-        <v>10.492653225806452</v>
+        <v>15.142362598144182</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -824,25 +824,25 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>8.0632156103854213E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="D7">
-        <v>0.17604868506846338</v>
+        <v>0.57815845824411138</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="G7">
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="H7">
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="I7">
-        <v>5.0165604838709674</v>
+        <v>7.2395967166309783</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -856,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.18908932840686807</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="G8">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="H8">
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="I8">
-        <v>4.4421451612903224</v>
+        <v>6.4106352605281929</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,22 +885,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.17604868506846338</v>
+        <v>0.57815845824411138</v>
       </c>
       <c r="E9">
-        <v>4.638872577803876</v>
+        <v>5.6388294075660239</v>
       </c>
       <c r="F9">
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="G9">
-        <v>0.13064516129032258</v>
+        <v>0.57815845824411138</v>
       </c>
       <c r="H9">
-        <v>4.7695177390941987</v>
+        <v>6.2169878658101352</v>
       </c>
       <c r="I9">
-        <v>150.98703322725868</v>
+        <v>64.180038068046628</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -911,25 +911,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>0.24189646831156264</v>
+        <v>1.0706638115631693</v>
       </c>
       <c r="D10" s="3">
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="E10" s="3">
-        <v>7.2812683499706399</v>
+        <v>8.8508208422555317</v>
       </c>
       <c r="F10" s="3">
-        <v>3.1588922817731915E-2</v>
+        <v>9.6867936712948022E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>0.40645161290322579</v>
+        <v>1.7987152034261245</v>
       </c>
       <c r="H10" s="3">
-        <v>7.6877199628738655</v>
+        <v>10.649536045681657</v>
       </c>
       <c r="I10" s="3">
-        <v>243.36758829137699</v>
+        <v>109.9387104449203</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -940,25 +940,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="D11" s="3">
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="E11" s="3">
-        <v>8.3969465648854946</v>
+        <v>10.206995003568879</v>
       </c>
       <c r="F11" s="3">
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="G11" s="3">
-        <v>0.26129032258064516</v>
+        <v>1.1563169164882225</v>
       </c>
       <c r="H11" s="3">
-        <v>8.6582368874661402</v>
+        <v>11.363311920057102</v>
       </c>
       <c r="I11" s="3">
-        <v>205.56818930066481</v>
+        <v>87.980442541042109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -969,25 +969,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>0.27414933075310438</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="D12" s="3">
-        <v>0.20430341230167356</v>
+        <v>0.67094932191291934</v>
       </c>
       <c r="E12" s="3">
-        <v>23.370522607163828</v>
+        <v>28.408279800142754</v>
       </c>
       <c r="F12" s="3">
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="G12" s="3">
-        <v>0.4258064516129032</v>
+        <v>1.8843683083511777</v>
       </c>
       <c r="H12" s="3">
-        <v>23.796329058776731</v>
+        <v>30.292648108493932</v>
       </c>
       <c r="I12" s="3">
-        <v>564.98434267800656</v>
+        <v>234.54082798001426</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -998,25 +998,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>0.38703434929850022</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="D13" s="3">
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="E13" s="3">
-        <v>11.685261303581914</v>
+        <v>14.204139900071377</v>
       </c>
       <c r="F13" s="3">
-        <v>4.2118563756975889E-2</v>
+        <v>0.12915724895059735</v>
       </c>
       <c r="G13" s="3">
-        <v>0.53387096774193554</v>
+        <v>2.3625981441827268</v>
       </c>
       <c r="H13" s="3">
-        <v>12.219132271323849</v>
+        <v>16.566738044254105</v>
       </c>
       <c r="I13" s="3">
-        <v>290.11274795190644</v>
+        <v>128.2679693076374</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1027,25 +1027,25 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>3.2252862441541685E-2</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="D14">
-        <v>0.24342534231688764</v>
+        <v>0.79942897930049961</v>
       </c>
       <c r="E14">
-        <v>26.776277157956546</v>
+        <v>32.548179871520347</v>
       </c>
       <c r="F14">
-        <v>0.97925660734968933</v>
+        <v>3.0029060381013886</v>
       </c>
       <c r="G14">
-        <v>0.2129032258064516</v>
+        <v>0.94218415417558887</v>
       </c>
       <c r="H14">
-        <v>26.989180383762999</v>
+        <v>33.490364025695939</v>
       </c>
       <c r="I14">
-        <v>27.560886677913679</v>
+        <v>11.152651331997884</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1056,25 +1056,25 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.1128850185453959</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="D15">
-        <v>0.24777222342968919</v>
+        <v>0.8137044967880086</v>
       </c>
       <c r="E15">
-        <v>5.1086318261890771</v>
+        <v>6.209850107066381</v>
       </c>
       <c r="F15">
-        <v>1.0003158892281774</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="G15">
-        <v>0.29677419354838708</v>
+        <v>1.3133476088508209</v>
       </c>
       <c r="H15">
-        <v>5.4054060197374643</v>
+        <v>7.5231977159172017</v>
       </c>
       <c r="I15">
-        <v>5.403699049415442</v>
+        <v>2.4525624553890077</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1088,22 +1088,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.23690502064768529</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="E16">
-        <v>13.035819142689371</v>
+        <v>15.845824411134906</v>
       </c>
       <c r="F16">
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="G16">
-        <v>0.17580645161290323</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="H16">
-        <v>13.211625594302275</v>
+        <v>16.623840114204143</v>
       </c>
       <c r="I16">
-        <v>18.184175111462128</v>
+        <v>7.4614540338681472</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1117,22 +1117,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.24125190176048686</v>
+        <v>0.79229122055674528</v>
       </c>
       <c r="E17">
-        <v>2.7011156782149146</v>
+        <v>3.2833690221270517</v>
       </c>
       <c r="F17">
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="G17">
-        <v>0.17903225806451614</v>
+        <v>0.79229122055674528</v>
       </c>
       <c r="H17">
-        <v>2.8801479362794309</v>
+        <v>4.0756602426837967</v>
       </c>
       <c r="I17">
-        <v>3.6963195879521291</v>
+        <v>1.7057188880529348</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1143,25 +1143,25 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>0.16126431220770843</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="D18" s="3">
-        <v>0.2238643773092806</v>
+        <v>0.73518915060670953</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="G18" s="3">
-        <v>0.32741935483870965</v>
+        <v>1.4489650249821557</v>
       </c>
       <c r="H18" s="3">
-        <v>0.32741935483870965</v>
+        <v>1.4489650249821557</v>
       </c>
       <c r="I18" s="3">
-        <v>6.9253933472232201E-2</v>
+        <v>9.9943088694203472E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1172,25 +1172,25 @@
         <v>7</v>
       </c>
       <c r="C19" s="3">
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="D19" s="3">
-        <v>0.22821125842208217</v>
+        <v>0.74946466809421841</v>
       </c>
       <c r="E19" s="3">
-        <v>2.2313564298297122</v>
+        <v>2.7123483226266951</v>
       </c>
       <c r="F19" s="3">
-        <v>4.7699273454775195</v>
+        <v>14.627058443655152</v>
       </c>
       <c r="G19" s="3">
-        <v>0.26612903225806456</v>
+        <v>1.1777301927194861</v>
       </c>
       <c r="H19" s="3">
-        <v>2.4974854620877767</v>
+        <v>3.8900785153461812</v>
       </c>
       <c r="I19" s="3">
-        <v>0.52358983296793848</v>
+        <v>0.26595084242885481</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1204,22 +1204,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0.23690502064768529</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="E20" s="3">
-        <v>2.8772753963593658</v>
+        <v>3.4975017844396858</v>
       </c>
       <c r="F20" s="3">
-        <v>5.2753501105612299</v>
+        <v>16.176945431062318</v>
       </c>
       <c r="G20" s="3">
-        <v>0.17580645161290323</v>
+        <v>0.77801570306923629</v>
       </c>
       <c r="H20" s="3">
-        <v>3.053081847972269</v>
+        <v>4.2755174875089219</v>
       </c>
       <c r="I20" s="3">
-        <v>0.57874487645095085</v>
+        <v>0.26429695925778707</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1233,22 +1233,22 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0.23907846120408607</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="E21" s="3">
-        <v>23.487962419260128</v>
+        <v>28.551034975017846</v>
       </c>
       <c r="F21" s="3">
-        <v>5.3490575971359382</v>
+        <v>16.402970616725863</v>
       </c>
       <c r="G21" s="3">
-        <v>0.17741935483870966</v>
+        <v>0.78515346181299062</v>
       </c>
       <c r="H21" s="3">
-        <v>23.665381774098837</v>
+        <v>29.336188436830835</v>
       </c>
       <c r="I21" s="3">
-        <v>4.4242151714294611</v>
+        <v>1.7884680234028563</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.18691588785046731</v>
+        <v>0.6138472519628837</v>
       </c>
       <c r="E22">
-        <v>1.7028772753963592</v>
+        <v>2.0699500356887941</v>
       </c>
       <c r="F22">
-        <v>0.22112245972412345</v>
+        <v>0.67807555699063626</v>
       </c>
       <c r="G22">
-        <v>0.13870967741935483</v>
+        <v>0.6138472519628837</v>
       </c>
       <c r="H22">
-        <v>1.8415869528157141</v>
+        <v>2.6837972876516778</v>
       </c>
       <c r="I22">
-        <v>8.3283577575670638</v>
+        <v>3.9579619999320208</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="E23">
-        <v>6.6353493834409862</v>
+        <v>8.0656673804425409</v>
       </c>
       <c r="F23">
-        <v>0.18953353690639146</v>
+        <v>0.58120762027768813</v>
       </c>
       <c r="G23">
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="H23">
-        <v>6.7805106737635672</v>
+        <v>8.708065667380442</v>
       </c>
       <c r="I23">
-        <v>35.77472770485145</v>
+        <v>14.982710762154015</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.18474244729406653</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="E24">
-        <v>6.7527891955372876</v>
+        <v>8.2084225553176307</v>
       </c>
       <c r="F24">
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="G24">
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="H24">
-        <v>6.8898859697308357</v>
+        <v>8.8151320485367606</v>
       </c>
       <c r="I24">
-        <v>12.117267973061805</v>
+        <v>5.0556414730219155</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1349,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.19343620951966964</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="E25">
-        <v>9.8062243100411042</v>
+        <v>11.920057102069951</v>
       </c>
       <c r="F25">
-        <v>0.60018953353690641</v>
+        <v>1.8404907975460125</v>
       </c>
       <c r="G25">
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="H25">
-        <v>9.9497726971378775</v>
+        <v>12.555317630264097</v>
       </c>
       <c r="I25">
-        <v>16.577717772757616</v>
+        <v>6.8217225791101583</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1375,25 +1375,25 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>8.0632156103854213E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="D26" s="3">
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="E26" s="3">
-        <v>0.58719906048150317</v>
+        <v>0.7137758743754461</v>
       </c>
       <c r="F26" s="3">
-        <v>3.0325365905022634</v>
+        <v>9.2993219244430101</v>
       </c>
       <c r="G26" s="3">
-        <v>0.22258064516129034</v>
+        <v>0.98501070663811574</v>
       </c>
       <c r="H26" s="3">
-        <v>0.80977970564279356</v>
+        <v>1.6987865810135618</v>
       </c>
       <c r="I26" s="3">
-        <v>0.26703048140588931</v>
+        <v>0.18267854310413195</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1404,25 +1404,25 @@
         <v>7</v>
       </c>
       <c r="C27" s="3">
-        <v>3.2252862441541685E-2</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="D27" s="3">
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="E27" s="3">
-        <v>1.4092777451556076</v>
+        <v>1.7130620985010707</v>
       </c>
       <c r="F27" s="3">
-        <v>3.3168368958618513</v>
+        <v>10.171133354859542</v>
       </c>
       <c r="G27" s="3">
-        <v>0.17741935483870966</v>
+        <v>0.78515346181299073</v>
       </c>
       <c r="H27" s="3">
-        <v>1.5866970999943173</v>
+        <v>2.4982155603140614</v>
       </c>
       <c r="I27" s="3">
-        <v>0.47837658281415968</v>
+        <v>0.24561820921563962</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1436,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0.19126276896326888</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="E28" s="3">
-        <v>0.11743981209630065</v>
+        <v>0.14275517487508924</v>
       </c>
       <c r="F28" s="3">
-        <v>4.8436348320522269</v>
+        <v>14.853083629318697</v>
       </c>
       <c r="G28" s="3">
-        <v>0.14193548387096774</v>
+        <v>0.62812276945039269</v>
       </c>
       <c r="H28" s="3">
-        <v>0.25937529596726838</v>
+        <v>0.77087794432548196</v>
       </c>
       <c r="I28" s="3">
-        <v>5.3549721430459739E-2</v>
+        <v>5.1900195512522118E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1465,22 +1465,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="E29" s="3">
-        <v>2.1726365237815619</v>
+        <v>2.6409707351891503</v>
       </c>
       <c r="F29" s="3">
-        <v>4.8015162682952512</v>
+        <v>14.7239263803681</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14677419354838711</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="H29" s="3">
-        <v>2.3194107173299492</v>
+        <v>3.2905067808708064</v>
       </c>
       <c r="I29" s="3">
-        <v>0.4830579733000554</v>
+        <v>0.22348025220080892</v>
       </c>
     </row>
   </sheetData>
